--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -78,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,12 +149,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -427,7 +442,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,13 +463,13 @@
       <c r="D1">
         <v>59</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="7">
         <v>60</v>
       </c>
       <c r="F1">
         <v>61</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="7">
         <v>62</v>
       </c>
       <c r="H1">
@@ -503,7 +518,7 @@
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>51</v>
       </c>
       <c r="E2">
@@ -515,7 +530,7 @@
       <c r="G2">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>55</v>
       </c>
       <c r="I2" s="1">
@@ -567,16 +582,16 @@
       <c r="C3">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>44</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>45</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>46</v>
       </c>
       <c r="H3">
@@ -628,22 +643,22 @@
       <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>34</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>37</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>38</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="1">
@@ -692,22 +707,22 @@
       <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>30</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>31</v>
       </c>
       <c r="I5" s="1">
@@ -756,22 +771,22 @@
       <c r="B6">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>23</v>
       </c>
       <c r="I6" s="1">
@@ -823,19 +838,19 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>15</v>
       </c>
       <c r="I7" s="1">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwine\Documents\GitHub\Chess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwine\Documents\GitHub\ChessGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>King</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>56</v>
       </c>
@@ -507,8 +507,14 @@
         <f>H1+U4</f>
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>48</v>
       </c>
@@ -571,8 +577,12 @@
       <c r="U2">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <f>U2+$U10</f>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>40</v>
       </c>
@@ -635,8 +645,12 @@
       <c r="U3">
         <v>256</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <f>U3+$U10</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>32</v>
       </c>
@@ -699,8 +713,12 @@
       <c r="U4">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <f>U4+$U10</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -763,8 +781,12 @@
       <c r="U5">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <f>U5+$U10</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -827,8 +849,12 @@
       <c r="U6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <f>U6+$U10</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -891,8 +917,12 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <f>U7+$U10</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -950,7 +980,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>6</v>
       </c>
@@ -958,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
         <v>7</v>
       </c>
@@ -966,7 +996,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1001,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>King</t>
   </si>
@@ -49,6 +49,18 @@
   <si>
     <t>White</t>
   </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Check?</t>
+  </si>
 </sst>
 </file>
 
@@ -72,13 +84,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,11 +158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -442,7 +447,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +468,13 @@
       <c r="D1">
         <v>59</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>60</v>
       </c>
       <c r="F1">
         <v>61</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>62</v>
       </c>
       <c r="H1">
@@ -524,7 +529,7 @@
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>51</v>
       </c>
       <c r="E2">
@@ -536,7 +541,7 @@
       <c r="G2">
         <v>54</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>55</v>
       </c>
       <c r="I2" s="1">
@@ -592,16 +597,16 @@
       <c r="C3">
         <v>42</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>44</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>45</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>46</v>
       </c>
       <c r="H3">
@@ -657,22 +662,22 @@
       <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>35</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>36</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>37</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>38</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>39</v>
       </c>
       <c r="I4" s="1">
@@ -725,22 +730,22 @@
       <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>26</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>27</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>28</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>29</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>30</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>31</v>
       </c>
       <c r="I5" s="1">
@@ -793,22 +798,22 @@
       <c r="B6">
         <v>17</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>18</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>20</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>21</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>22</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>23</v>
       </c>
       <c r="I6" s="1">
@@ -864,19 +869,19 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>13</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>14</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>15</v>
       </c>
       <c r="I7" s="1">
@@ -996,6 +1001,41 @@
         <v>512</v>
       </c>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
@@ -1059,7 +1099,7 @@
       <c r="I14" s="3">
         <v>256</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>512</v>
       </c>
       <c r="K14">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>King</t>
   </si>
@@ -60,13 +60,37 @@
   </si>
   <si>
     <t>Check?</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -154,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -163,6 +200,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -444,567 +487,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>8</v>
+      </c>
+      <c r="B1">
         <v>56</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>57</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>58</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>59</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>60</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>61</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="6">
         <v>62</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>63</v>
       </c>
-      <c r="I1" s="1">
-        <f>A1+U4</f>
+      <c r="J1" s="1">
+        <f>B1+V4</f>
         <v>248</v>
       </c>
-      <c r="J1" s="1">
-        <f>B1+U6</f>
+      <c r="K1" s="1">
+        <f>C1+V6</f>
         <v>121</v>
       </c>
-      <c r="K1" s="1">
-        <f>C1+U5</f>
+      <c r="L1" s="1">
+        <f>D1+V5</f>
         <v>186</v>
       </c>
-      <c r="L1" s="1">
-        <f>D1+U3</f>
+      <c r="M1" s="1">
+        <f>E1+V3</f>
         <v>315</v>
       </c>
-      <c r="M1" s="1">
-        <f>E1+U2</f>
+      <c r="N1" s="1">
+        <f>F1+V2</f>
         <v>380</v>
       </c>
-      <c r="N1" s="1">
-        <f>F1+U5</f>
+      <c r="O1" s="1">
+        <f>G1+V5</f>
         <v>189</v>
       </c>
-      <c r="O1" s="1">
-        <f>G1+U6</f>
+      <c r="P1" s="1">
+        <f>H1+V6</f>
         <v>126</v>
       </c>
-      <c r="P1" s="1">
-        <f>H1+U4</f>
+      <c r="Q1" s="1">
+        <f>I1+V4</f>
         <v>255</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>48</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>49</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>51</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>52</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>53</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>54</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>55</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I6" si="0">A2</f>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J6" si="0">B2</f>
         <v>48</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J6" si="1">B2</f>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K6" si="1">C2</f>
         <v>49</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K6" si="2">C2</f>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L6" si="2">D2</f>
         <v>50</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L6" si="3">D2</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M6" si="3">E2</f>
         <v>51</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M6" si="4">E2</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N6" si="4">F2</f>
         <v>52</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N6" si="5">F2</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O6" si="5">G2</f>
         <v>53</v>
       </c>
-      <c r="O2" s="1">
-        <f t="shared" ref="O2:O6" si="6">G2</f>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P6" si="6">H2</f>
         <v>54</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P6" si="7">H2</f>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:Q6" si="7">I2</f>
         <v>55</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>320</v>
       </c>
-      <c r="V2">
-        <f>U2+$U10</f>
+      <c r="W2">
+        <f>V2+$V10</f>
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:23" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>41</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>42</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>43</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>44</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>45</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>46</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>47</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>256</v>
       </c>
-      <c r="V3">
-        <f>U3+$U10</f>
+      <c r="W3">
+        <f>V3+$V10</f>
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:23" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>32</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>33</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>34</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>35</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>36</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>37</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>38</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>39</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>192</v>
       </c>
-      <c r="V4">
-        <f>U4+$U10</f>
+      <c r="W4">
+        <f>V4+$V10</f>
         <v>704</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:23" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>28</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>29</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>30</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>31</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>128</v>
       </c>
-      <c r="V5">
-        <f>U5+$U10</f>
+      <c r="W5">
+        <f>V5+$V10</f>
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:23" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>21</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>22</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>23</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>64</v>
       </c>
-      <c r="V6">
-        <f>U6+$U10</f>
+      <c r="W6">
+        <f>V6+$V10</f>
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:23" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>13</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>14</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>15</v>
       </c>
-      <c r="I7" s="1">
-        <f>A7+U10</f>
+      <c r="J7" s="1">
+        <f>B7+V10</f>
         <v>520</v>
       </c>
-      <c r="J7" s="1">
-        <f>B7+U10</f>
+      <c r="K7" s="1">
+        <f>C7+V10</f>
         <v>521</v>
       </c>
-      <c r="K7" s="1">
-        <f>C7+U10</f>
+      <c r="L7" s="1">
+        <f>D7+V10</f>
         <v>522</v>
       </c>
-      <c r="L7" s="1">
-        <f>D7+U10</f>
+      <c r="M7" s="1">
+        <f>E7+V10</f>
         <v>523</v>
       </c>
-      <c r="M7" s="1">
-        <f>E7+U10</f>
+      <c r="N7" s="1">
+        <f>F7+V10</f>
         <v>524</v>
       </c>
-      <c r="N7" s="1">
-        <f>F7+U10</f>
+      <c r="O7" s="1">
+        <f>G7+V10</f>
         <v>525</v>
       </c>
-      <c r="O7" s="1">
-        <f>G7+U10</f>
+      <c r="P7" s="1">
+        <f>H7+V10</f>
         <v>526</v>
       </c>
-      <c r="P7" s="1">
-        <f>H7+U10</f>
+      <c r="Q7" s="1">
+        <f>I7+V10</f>
         <v>527</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <f>U7+$U10</f>
+      <c r="W7">
+        <f>V7+$V10</f>
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:23" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8" s="1">
-        <f>A8+U10+U4</f>
+      <c r="J8" s="1">
+        <f>B8+V10+V4</f>
         <v>704</v>
       </c>
-      <c r="J8" s="1">
-        <f>B8+U10+U6</f>
+      <c r="K8" s="1">
+        <f>C8+V10+V6</f>
         <v>577</v>
       </c>
-      <c r="K8" s="1">
-        <f>C8+U10+U5</f>
+      <c r="L8" s="1">
+        <f>D8+V10+V5</f>
         <v>642</v>
       </c>
-      <c r="L8" s="1">
-        <f>D8+U10+U3</f>
+      <c r="M8" s="1">
+        <f>E8+V10+V3</f>
         <v>771</v>
       </c>
-      <c r="M8" s="1">
-        <f>E8+U10+U2</f>
+      <c r="N8" s="1">
+        <f>F8+V10+V2</f>
         <v>836</v>
       </c>
-      <c r="N8" s="1">
-        <f>F8+U10+U5</f>
+      <c r="O8" s="1">
+        <f>G8+V10+V5</f>
         <v>645</v>
       </c>
-      <c r="O8" s="1">
-        <f>G8+U10+U6</f>
+      <c r="P8" s="1">
+        <f>H8+V10+V6</f>
         <v>582</v>
       </c>
-      <c r="P8" s="1">
-        <f>H8+U10+U4</f>
+      <c r="Q8" s="1">
+        <f>I8+V10+V4</f>
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T9" t="s">
+    <row r="9" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
         <v>6</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T10" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
         <v>7</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1030,83 +1119,93 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>32</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>64</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>128</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>256</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>512</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1024</v>
+      </c>
+    </row>
+    <row r="21" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f>256+27</f>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>